--- a/excel_file/pós_dados.xlsx
+++ b/excel_file/pós_dados.xlsx
@@ -17,6 +17,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">Produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PÓS PAGO</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -89,8 +100,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,14 +232,808 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A128" activeCellId="0" sqref="A128:A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.31"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/excel_file/pós_dados.xlsx
+++ b/excel_file/pós_dados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="2">
   <si>
     <t xml:space="preserve">Produto</t>
   </si>
@@ -35,7 +35,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -57,6 +57,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -66,12 +73,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -100,13 +114,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -232,19 +250,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A158"/>
+  <dimension ref="A1:A151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A128" activeCellId="0" sqref="A128:A158"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -995,41 +1014,6 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
         <v>1</v>
       </c>
     </row>
